--- a/genshin/432901783971401380_2020-09-09_14-00-01.xlsx
+++ b/genshin/432901783971401380_2020-09-09_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:47:48</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11652777778</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3485499393</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-12 22:17:15</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44086.92864583333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>3475676168</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-10 11:44:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44084.48924768518</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:09:24</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44083.88152777778</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>3472901939</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:48:13</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44083.74181712963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:53:58</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44083.70414351852</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -977,10 +981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:53:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44083.70387731482</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3473033904</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:52:45</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44083.70329861111</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>3473026379</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:49:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44083.70075231481</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>3472967000</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:30:17</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44083.68769675926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:28:49</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44083.68667824074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1356,10 +1350,8 @@
           <t>3472967000</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:26:30</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44083.68506944444</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1427,10 +1419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:21:30</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44083.68159722222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1494,10 +1484,8 @@
           <t>3472909622</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:05:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44083.67025462963</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -1561,10 +1549,8 @@
           <t>3472901939</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:56:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44083.66408564815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:52:15</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44083.66128472222</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1711,10 +1695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:51:31</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44083.66077546297</v>
       </c>
       <c r="I18" t="n">
         <v>13</v>
@@ -1782,10 +1764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:38:57</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44083.65204861111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1849,10 +1829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:26:13</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44083.64320601852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1920,10 +1898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:24:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44083.64195601852</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1995,10 +1971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:14:26</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44083.63502314815</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -2074,10 +2048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:04:49</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44083.62834490741</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2145,10 +2117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:00:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44083.62554398148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:51:29</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44083.61908564815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2295,10 +2263,8 @@
           <t>3472751169</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:49:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44083.61785879629</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2374,10 +2340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:39:13</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44083.61056712963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2437,10 +2401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:39:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44083.61048611111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2517,10 +2479,8 @@
           <t>3472707976</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:33:11</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44083.60637731481</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2584,10 +2544,8 @@
           <t>3472707976</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:32:17</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44083.60575231481</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2655,10 +2613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:31:08</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44083.6049537037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2731,10 +2687,8 @@
           <t>3472684852</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:21:46</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44083.59844907407</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2806,10 +2760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:20:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44083.59736111111</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2882,10 +2834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:19:48</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44083.59708333333</v>
       </c>
       <c r="I34" t="n">
         <v>27</v>
@@ -2957,10 +2907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:19:26</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44083.5968287037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3020,10 +2968,8 @@
           <t>3472664491</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:14:46</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44083.59358796296</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3091,10 +3037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:07:47</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44083.58873842593</v>
       </c>
       <c r="I37" t="n">
         <v>73</v>
@@ -3170,10 +3114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:06:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44083.58814814815</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3237,10 +3179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:06:13</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44083.58765046296</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3308,10 +3248,8 @@
           <t>3472645481</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:10</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44083.58553240741</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3375,10 +3313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:02:04</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44083.58476851852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3446,10 +3382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:00:27</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44083.58364583334</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
